--- a/biology/Médecine/Assistance_publique_-_Hôpitaux_de_Marseille/Assistance_publique_-_Hôpitaux_de_Marseille.xlsx
+++ b/biology/Médecine/Assistance_publique_-_Hôpitaux_de_Marseille/Assistance_publique_-_Hôpitaux_de_Marseille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Assistance_publique_-_H%C3%B4pitaux_de_Marseille</t>
+          <t>Assistance_publique_-_Hôpitaux_de_Marseille</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Assistance publique - Hôpitaux de Marseille (AP-HM), communiquant depuis 2020 sous le nom d'Hôpitaux universitaires de Marseille, est l'établissement public de santé français exerçant le rôle de centre hospitalier régional et universitaire pour Marseille et sa région.
-Troisième groupement hospitalier de France par son budget (1,37 milliard d'euros en 2017) et ses ressources humaines, l'AP-HM emploie 12 000 agents, 1 885 médecins et près de 4 000 internes et externes. Elle regroupe cinq hôpitaux répartis dans l'agglomération marseillaise et dispose de 5 362 lits[1].
+Troisième groupement hospitalier de France par son budget (1,37 milliard d'euros en 2017) et ses ressources humaines, l'AP-HM emploie 12 000 agents, 1 885 médecins et près de 4 000 internes et externes. Elle regroupe cinq hôpitaux répartis dans l'agglomération marseillaise et dispose de 5 362 lits.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Assistance_publique_-_H%C3%B4pitaux_de_Marseille</t>
+          <t>Assistance_publique_-_Hôpitaux_de_Marseille</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Hôpitaux
-le centre hospitalier de la Timone
+          <t>Hôpitaux</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>le centre hospitalier de la Timone
 l'hôpital Nord
 l'hôpital de la Conception
 les hôpitaux Sud
@@ -532,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Assistance_publique_-_H%C3%B4pitaux_de_Marseille</t>
+          <t>Assistance_publique_-_Hôpitaux_de_Marseille</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,6 +568,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -558,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Assistance_publique_-_H%C3%B4pitaux_de_Marseille</t>
+          <t>Assistance_publique_-_Hôpitaux_de_Marseille</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +595,9 @@
           <t>Directeurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>23 janvier 2013 : Jean-Jacques Romatet
 6 avril 2015 : Catherine Geindre
@@ -591,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Assistance_publique_-_H%C3%B4pitaux_de_Marseille</t>
+          <t>Assistance_publique_-_Hôpitaux_de_Marseille</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +630,9 @@
           <t>Identité visuelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Blason de l'Assistance publique de Marseille du XVIIIe siècle jusqu'en 1985.
